--- a/concept_set_documentation/Appendicitis.xlsx
+++ b/concept_set_documentation/Appendicitis.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewlevine/code_projects/emerge2ohdsi_information_loss_CURATED/concept_set_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ABAE6E89-9787-AB45-A659-C02CB24FF711}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9BF7695-6E08-8C4C-9D27-A351E7226DC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1040" windowWidth="24640" windowHeight="14000" activeTab="3" xr2:uid="{8F9529E9-F54B-EF44-B582-F8055B0E1D72}"/>
+    <workbookView xWindow="960" yWindow="1040" windowWidth="24640" windowHeight="14000" firstSheet="1" activeTab="7" xr2:uid="{8F9529E9-F54B-EF44-B582-F8055B0E1D72}"/>
   </bookViews>
   <sheets>
     <sheet name="Original ICD9 Concept Set Gold " sheetId="1" r:id="rId1"/>
     <sheet name="Author-intent extension to Conc" sheetId="2" r:id="rId2"/>
     <sheet name="KE SNOMED Mimic" sheetId="3" r:id="rId3"/>
     <sheet name="KE SNOMED Optimize" sheetId="4" r:id="rId4"/>
+    <sheet name="Auto No Desc" sheetId="5" r:id="rId5"/>
+    <sheet name="Auto All Desc" sheetId="6" r:id="rId6"/>
+    <sheet name="Auto No Desc if Child" sheetId="7" r:id="rId7"/>
+    <sheet name="Auto No Desc if Desc" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="97">
   <si>
     <t>concept_id</t>
   </si>
@@ -307,6 +311,18 @@
   </si>
   <si>
     <t>Appendicitis: Author-intent extension to Concept Set Gold Standard</t>
+  </si>
+  <si>
+    <t>Appendicitis: Automatic Mappings, All Descendents</t>
+  </si>
+  <si>
+    <t>Appendicitis: Automatic Mappings, No Descendents</t>
+  </si>
+  <si>
+    <t>Appendicitis: Automatic Mappings, No Descendents if Child</t>
+  </si>
+  <si>
+    <t>Appendicitis: Automatic Mappings, No Descendents if Descendent</t>
   </si>
 </sst>
 </file>
@@ -409,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,6 +452,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -777,13 +802,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -925,13 +950,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1487,13 +1512,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1590,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF64C2-C807-A446-BA0B-191DBCC42DC9}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,13 +1630,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1695,6 +1720,825 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81134BDD-82A6-1647-95F9-9BE7F750C6EB}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="32.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7A5646-227C-3245-A13D-7FEE8EE08C00}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="32.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64975C1-921F-B941-A0C2-F3687A6576BB}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="32.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55E8DD-91A5-8841-9D6C-A2AB8BB12A0E}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="32.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
